--- a/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,64</t>
+          <t>2,15; 7,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,9</t>
+          <t>1,28; 7,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,68</t>
+          <t>5,93; 13,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,88</t>
+          <t>4,56; 10,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,11</t>
+          <t>6,96; 13,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,23</t>
+          <t>11,25; 17,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,33</t>
+          <t>4,21; 8,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,19</t>
+          <t>5,3; 9,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,65</t>
+          <t>10,36; 15,16</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 96,89</t>
+          <t>20,43; 98,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 86,59</t>
+          <t>12,9; 92,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,07; 157,71</t>
+          <t>55,39; 166,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,98; 96,41</t>
+          <t>35,34; 97,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 124,65</t>
+          <t>54,78; 122,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 166,01</t>
+          <t>88,1; 166,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 88,55</t>
+          <t>36,73; 89,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,62; 103,92</t>
+          <t>46,69; 103,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,56; 151,96</t>
+          <t>91,4; 158,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,38</t>
+          <t>1,38; 4,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,83</t>
+          <t>1,02; 3,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,65</t>
+          <t>4,55; 7,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,42</t>
+          <t>2,41; 6,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,42</t>
+          <t>0,51; 4,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,19</t>
+          <t>3,01; 7,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,79</t>
+          <t>2,22; 4,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,47</t>
+          <t>1,3; 3,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,05</t>
+          <t>4,42; 7,06</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 161,84</t>
+          <t>32,79; 155,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 142,9</t>
+          <t>26,36; 138,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>109,28; 280,58</t>
+          <t>108,91; 282,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 112,01</t>
+          <t>32,91; 115,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 78,54</t>
+          <t>6,47; 75,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,46; 128,77</t>
+          <t>41,89; 139,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,71; 107,84</t>
+          <t>39,8; 105,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 79,16</t>
+          <t>23,57; 82,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,5; 161,23</t>
+          <t>79,95; 161,89</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,54</t>
+          <t>-1,58; 3,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,58</t>
+          <t>0,02; 5,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,28</t>
+          <t>3,28; 8,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,0</t>
+          <t>-3,98; 2,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,41</t>
+          <t>-5,23; 0,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,03</t>
+          <t>-2,13; 4,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,43</t>
+          <t>-1,9; 2,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,15</t>
+          <t>-1,56; 2,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,57</t>
+          <t>1,58; 5,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 200,92</t>
+          <t>-48,56; 187,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 330,28</t>
+          <t>-6,09; 303,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,54; 505,11</t>
+          <t>69,62; 502,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 60,55</t>
+          <t>-47,91; 55,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 11,57</t>
+          <t>-61,63; 13,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 77,97</t>
+          <t>-22,77; 85,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 70,99</t>
+          <t>-34,88; 66,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 62,11</t>
+          <t>-28,92; 65,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,49; 154,06</t>
+          <t>26,78; 151,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,18</t>
+          <t>1,81; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,48</t>
+          <t>1,09; 3,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,08</t>
+          <t>4,32; 7,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,39</t>
+          <t>3,35; 6,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,64</t>
+          <t>1,68; 4,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,2</t>
+          <t>4,14; 7,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,9</t>
+          <t>2,89; 4,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,74</t>
+          <t>1,82; 3,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,79</t>
+          <t>4,68; 6,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,62; 94,65</t>
+          <t>31,61; 94,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,4; 77,18</t>
+          <t>19,23; 77,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>76,89; 155,94</t>
+          <t>77,75; 156,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,82; 81,38</t>
+          <t>36,05; 82,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,65; 58,68</t>
+          <t>18,06; 61,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,3; 94,49</t>
+          <t>45,32; 93,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,82; 76,52</t>
+          <t>39,15; 78,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,27; 58,96</t>
+          <t>25,14; 59,04</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,74; 108,29</t>
+          <t>65,23; 108,1</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,71</t>
+          <t>1,8; 7,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,23</t>
+          <t>1,34; 7,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,93; 13,45</t>
+          <t>5,77; 13,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 10,07</t>
+          <t>4,55; 10,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 13,14</t>
+          <t>6,87; 13,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,22</t>
+          <t>10,96; 17,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,38</t>
+          <t>4,21; 8,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,86</t>
+          <t>5,27; 9,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,36; 15,16</t>
+          <t>10,18; 14,8</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,43; 98,73</t>
+          <t>16,87; 95,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,9; 92,3</t>
+          <t>12,18; 96,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>55,39; 166,1</t>
+          <t>54,19; 161,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,34; 97,65</t>
+          <t>36,28; 104,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,78; 122,66</t>
+          <t>53,45; 125,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,1; 166,8</t>
+          <t>84,69; 172,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,73; 89,12</t>
+          <t>37,03; 88,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,69; 103,02</t>
+          <t>46,68; 98,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,4; 158,35</t>
+          <t>88,81; 152,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,23</t>
+          <t>1,42; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,85</t>
+          <t>0,94; 3,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,9</t>
+          <t>4,44; 7,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,43</t>
+          <t>2,27; 6,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,28</t>
+          <t>0,5; 4,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,44</t>
+          <t>3,08; 7,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,55</t>
+          <t>2,44; 4,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,61</t>
+          <t>1,37; 3,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,06</t>
+          <t>4,44; 7,16</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 155,23</t>
+          <t>35,88; 159,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,36; 138,74</t>
+          <t>22,45; 134,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>108,91; 282,87</t>
+          <t>100,45; 276,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,91; 115,32</t>
+          <t>28,62; 112,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,47; 75,71</t>
+          <t>4,99; 75,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,89; 139,96</t>
+          <t>42,45; 131,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,8; 105,23</t>
+          <t>44,94; 110,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,57; 82,56</t>
+          <t>25,92; 84,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,95; 161,89</t>
+          <t>81,88; 165,37</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,39</t>
+          <t>-1,47; 3,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,24</t>
+          <t>0,3; 5,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,75</t>
+          <t>3,26; 9,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,9</t>
+          <t>-4,06; 2,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,6</t>
+          <t>-5,63; 0,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,13</t>
+          <t>-1,73; 4,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,38</t>
+          <t>-1,61; 2,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 2,24</t>
+          <t>-1,68; 2,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,6</t>
+          <t>1,72; 5,67</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 187,53</t>
+          <t>-43,17; 182,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 303,91</t>
+          <t>1,92; 331,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,62; 502,58</t>
+          <t>78,25; 577,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 55,58</t>
+          <t>-49,26; 55,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 13,43</t>
+          <t>-62,87; 11,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 85,12</t>
+          <t>-20,89; 83,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 66,83</t>
+          <t>-30,39; 73,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 65,75</t>
+          <t>-31,14; 59,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,78; 151,14</t>
+          <t>26,63; 157,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,27</t>
+          <t>1,78; 4,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,5</t>
+          <t>1,2; 3,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,08</t>
+          <t>4,16; 7,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,46</t>
+          <t>3,19; 6,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,75</t>
+          <t>1,73; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,18</t>
+          <t>4,16; 7,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 4,92</t>
+          <t>3,04; 4,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,76</t>
+          <t>1,84; 3,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,68; 6,78</t>
+          <t>4,59; 6,72</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,61; 94,63</t>
+          <t>31,94; 93,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,23; 77,67</t>
+          <t>20,73; 74,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>77,75; 156,05</t>
+          <t>76,51; 155,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,05; 82,43</t>
+          <t>34,59; 78,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,06; 61,15</t>
+          <t>18,98; 59,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,32; 93,09</t>
+          <t>45,75; 94,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,15; 78,26</t>
+          <t>42,04; 77,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,14; 59,04</t>
+          <t>25,76; 60,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,23; 108,1</t>
+          <t>63,49; 105,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió desanimado y triste siempre, casi siempre o muchas veces</t>
+          <t>Población que se sintió desanimada y triste siempre, casi siempre o muchas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,64</t>
+          <t>1,87; 7,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 7,32</t>
+          <t>1,48; 6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 13,16</t>
+          <t>5,49; 12,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,58</t>
+          <t>4,84; 9,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 13,22</t>
+          <t>6,53; 13,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,96; 17,36</t>
+          <t>10,87; 17,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,35</t>
+          <t>4,34; 8,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,62</t>
+          <t>5,33; 10,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,8</t>
+          <t>10,11; 14,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,87; 95,77</t>
+          <t>18,63; 96,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 96,18</t>
+          <t>14,14; 86,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,19; 161,52</t>
+          <t>54,07; 157,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,28; 104,77</t>
+          <t>36,98; 96,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,45; 125,28</t>
+          <t>51,82; 124,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,69; 172,77</t>
+          <t>83,99; 166,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,03; 88,19</t>
+          <t>38,57; 88,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,68; 98,71</t>
+          <t>46,62; 103,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,81; 152,04</t>
+          <t>88,56; 151,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,31</t>
+          <t>1,36; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,78</t>
+          <t>0,86; 3,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,62</t>
+          <t>4,52; 7,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,44</t>
+          <t>2,36; 6,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,29</t>
+          <t>0,76; 4,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,36</t>
+          <t>3,07; 7,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,81</t>
+          <t>2,23; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,68</t>
+          <t>1,19; 3,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,16</t>
+          <t>4,48; 7,05</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,88; 159,22</t>
+          <t>31,34; 161,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,45; 134,37</t>
+          <t>21,55; 142,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100,45; 276,25</t>
+          <t>109,28; 280,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,62; 112,44</t>
+          <t>31,78; 112,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 75,2</t>
+          <t>10,14; 78,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,45; 131,98</t>
+          <t>42,46; 128,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,94; 110,28</t>
+          <t>39,71; 107,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,92; 84,8</t>
+          <t>21,71; 79,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,88; 165,37</t>
+          <t>82,5; 161,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,27</t>
+          <t>-1,26; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,54</t>
+          <t>0,41; 5,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,02</t>
+          <t>3,31; 9,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,97</t>
+          <t>-3,94; 3,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 0,53</t>
+          <t>-5,02; 0,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,13</t>
+          <t>-1,86; 4,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,7</t>
+          <t>-1,6; 2,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,22</t>
+          <t>-1,68; 2,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,67</t>
+          <t>1,42; 5,57</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 182,57</t>
+          <t>-36,86; 200,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 331,04</t>
+          <t>3,59; 330,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,25; 577,58</t>
+          <t>77,54; 505,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 55,99</t>
+          <t>-49,17; 60,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 11,78</t>
+          <t>-60,97; 11,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 83,81</t>
+          <t>-21,49; 77,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 73,91</t>
+          <t>-30,7; 70,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 59,08</t>
+          <t>-31,87; 62,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,63; 157,22</t>
+          <t>23,49; 154,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,29</t>
+          <t>1,72; 4,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,42</t>
+          <t>1,17; 3,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,07</t>
+          <t>4,28; 7,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,22</t>
+          <t>3,18; 6,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,7</t>
+          <t>1,56; 4,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,3</t>
+          <t>3,84; 7,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,99</t>
+          <t>2,92; 4,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,86</t>
+          <t>1,89; 3,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 6,72</t>
+          <t>4,72; 6,79</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,94; 93,74</t>
+          <t>31,62; 94,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,73; 74,71</t>
+          <t>20,4; 77,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>76,51; 155,94</t>
+          <t>76,89; 155,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,59; 78,38</t>
+          <t>33,82; 81,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,98; 59,53</t>
+          <t>16,65; 58,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,75; 94,96</t>
+          <t>43,3; 94,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>42,04; 77,04</t>
+          <t>39,82; 76,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,76; 60,29</t>
+          <t>26,27; 58,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,49; 105,34</t>
+          <t>65,74; 108,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,16</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>11,59</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,49; 12,68</t>
+          <t>4,75; 11,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,23</t>
+          <t>10,26; 16,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 14,65</t>
+          <t>9,27; 13,72</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>104,5%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>122,75%</t>
+          <t>116,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>118,92%</t>
+          <t>110,81%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,07; 157,71</t>
+          <t>46,44; 146,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 166,01</t>
+          <t>79,4; 158,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,56; 151,96</t>
+          <t>81,82; 143,36</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>4,57</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,65</t>
+          <t>2,35; 6,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,19</t>
+          <t>1,31; 6,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,05</t>
+          <t>2,46; 6,01</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>178,51%</t>
+          <t>143,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>118,79%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>109,28; 280,58</t>
+          <t>63,64; 240,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,46; 128,77</t>
+          <t>19,32; 110,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>82,5; 161,23</t>
+          <t>51,58; 134,9</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,83</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,28</t>
+          <t>3,56; 11,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,03</t>
+          <t>-1,88; 4,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,57</t>
+          <t>1,71; 6,22</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>218,39%</t>
+          <t>236,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>83,91%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,54; 505,11</t>
+          <t>89,77; 579,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 77,97</t>
+          <t>-21,83; 76,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,49; 154,06</t>
+          <t>27,39; 167,1</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>4,71</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,08</t>
+          <t>2,45; 6,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,2</t>
+          <t>2,28; 6,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,79</t>
+          <t>3,11; 5,88</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>112,0%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,68%</t>
+          <t>54,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>69,24%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>76,89; 155,94</t>
+          <t>46,59; 138,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>43,3; 94,49</t>
+          <t>26,08; 81,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,74; 108,29</t>
+          <t>44,28; 92,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 7,64</t>
+          <t>1,86; 7,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,9</t>
+          <t>1,4; 7,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,87</t>
+          <t>5,49; 12,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,88</t>
+          <t>4,2; 10,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 13,11</t>
+          <t>6,7; 13,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,26; 16,34</t>
+          <t>10,4; 16,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,33</t>
+          <t>4,11; 8,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,19</t>
+          <t>5,26; 9,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,27; 13,72</t>
+          <t>9,42; 13,78</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,63; 96,89</t>
+          <t>15,79; 95,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 86,59</t>
+          <t>13,15; 89,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,44; 146,45</t>
+          <t>53,06; 158,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,98; 96,41</t>
+          <t>32,53; 95,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 124,65</t>
+          <t>52,28; 127,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,4; 158,26</t>
+          <t>78,35; 158,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 88,55</t>
+          <t>37,18; 86,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,62; 103,92</t>
+          <t>46,29; 101,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,82; 143,36</t>
+          <t>82,62; 141,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,38</t>
+          <t>1,35; 4,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,83</t>
+          <t>1,1; 3,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,76</t>
+          <t>1,9; 6,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,42</t>
+          <t>2,46; 6,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,42</t>
+          <t>0,64; 4,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,33</t>
+          <t>0,81; 6,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,79</t>
+          <t>2,19; 4,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,47</t>
+          <t>1,21; 3,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,01</t>
+          <t>2,49; 6,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 161,84</t>
+          <t>31,59; 156,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 142,9</t>
+          <t>26,24; 144,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,64; 240,83</t>
+          <t>53,75; 230,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 112,01</t>
+          <t>32,3; 115,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 78,54</t>
+          <t>9,03; 74,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,32; 110,58</t>
+          <t>11,87; 108,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,71; 107,84</t>
+          <t>39,94; 110,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 79,16</t>
+          <t>21,8; 80,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,58; 134,9</t>
+          <t>51,32; 136,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 3,54</t>
+          <t>-1,51; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,58</t>
+          <t>0,41; 5,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,34</t>
+          <t>3,4; 10,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,0</t>
+          <t>-4,1; 3,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 0,41</t>
+          <t>-5,5; 0,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 4,02</t>
+          <t>-1,65; 3,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,43</t>
+          <t>-1,65; 2,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,15</t>
+          <t>-1,47; 2,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,22</t>
+          <t>1,6; 6,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 200,92</t>
+          <t>-43,04; 184,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 330,28</t>
+          <t>3,89; 323,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,77; 579,29</t>
+          <t>68,22; 541,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,17; 60,55</t>
+          <t>-49,9; 64,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,97; 11,57</t>
+          <t>-65,29; 15,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,83; 76,86</t>
+          <t>-20,06; 87,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 70,99</t>
+          <t>-31,21; 71,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,87; 62,11</t>
+          <t>-27,0; 57,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 167,1</t>
+          <t>26,62; 173,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,18</t>
+          <t>1,77; 4,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,48</t>
+          <t>1,1; 3,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,4</t>
+          <t>2,72; 6,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,39</t>
+          <t>3,25; 6,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,64</t>
+          <t>1,79; 4,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,36</t>
+          <t>2,06; 6,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,9</t>
+          <t>2,89; 4,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,74</t>
+          <t>1,86; 3,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,88</t>
+          <t>3,13; 5,94</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,62; 94,65</t>
+          <t>31,64; 93,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,4; 77,18</t>
+          <t>20,04; 79,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>46,59; 138,59</t>
+          <t>50,02; 142,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,82; 81,38</t>
+          <t>35,0; 81,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>16,65; 58,68</t>
+          <t>19,57; 59,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,08; 81,16</t>
+          <t>24,0; 77,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>39,82; 76,52</t>
+          <t>40,81; 77,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,27; 58,96</t>
+          <t>26,01; 59,86</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,28; 92,72</t>
+          <t>44,64; 92,42</t>
         </is>
       </c>
     </row>
